--- a/IMY220/Project/Deliverable_1_checklist.xlsx
+++ b/IMY220/Project/Deliverable_1_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Tuks2022\IMY220\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD9B2C7-FDC5-4362-A979-17367D8453AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D196EAF6-1BE4-40E1-917F-0EB27FA25E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{8A8DFAD8-B47F-4B2A-A97E-DD6D1E7318CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8A8DFAD8-B47F-4B2A-A97E-DD6D1E7318CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>1. login and event creation</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -642,7 +648,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,6 +815,9 @@
       <c r="J12" t="s">
         <v>47</v>
       </c>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -852,6 +861,9 @@
       <c r="J14" t="s">
         <v>49</v>
       </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -899,7 +911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -919,7 +931,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -942,7 +954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>27</v>
       </c>
@@ -956,7 +968,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>28</v>
       </c>
@@ -967,7 +979,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>29</v>
       </c>
@@ -975,7 +987,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>30</v>
       </c>
@@ -983,64 +995,82 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
         <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/IMY220/Project/Deliverable_1_checklist.xlsx
+++ b/IMY220/Project/Deliverable_1_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Tuks2022\IMY220\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D196EAF6-1BE4-40E1-917F-0EB27FA25E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F538C78-9D71-4B37-86CF-0EF750BF67A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8A8DFAD8-B47F-4B2A-A97E-DD6D1E7318CF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>1. login and event creation</t>
   </si>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783727B8-7C35-4ABE-B804-3874BB0C720F}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,6 +746,9 @@
       <c r="G9" t="s">
         <v>32</v>
       </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
@@ -769,6 +772,9 @@
       <c r="J10" t="s">
         <v>45</v>
       </c>
+      <c r="K10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -835,6 +841,9 @@
       <c r="G13" t="s">
         <v>35</v>
       </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
@@ -887,6 +896,9 @@
       <c r="J15" t="s">
         <v>50</v>
       </c>
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -921,6 +933,9 @@
       <c r="D17" t="s">
         <v>19</v>
       </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
       <c r="G17" t="s">
         <v>39</v>
       </c>
@@ -953,6 +968,9 @@
       <c r="J18" t="s">
         <v>53</v>
       </c>
+      <c r="K18" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
@@ -967,6 +985,9 @@
       <c r="J19" t="s">
         <v>54</v>
       </c>
+      <c r="K19" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
@@ -975,8 +996,14 @@
       <c r="G20" t="s">
         <v>42</v>
       </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
       <c r="J20" t="s">
         <v>55</v>
+      </c>
+      <c r="K20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -986,6 +1013,9 @@
       <c r="J21" t="s">
         <v>56</v>
       </c>
+      <c r="K21" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
@@ -994,6 +1024,9 @@
       <c r="J22" t="s">
         <v>57</v>
       </c>
+      <c r="K22" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
@@ -1015,15 +1048,24 @@
       <c r="J25" t="s">
         <v>60</v>
       </c>
+      <c r="K25" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>61</v>
       </c>
+      <c r="K26" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
         <v>62</v>
+      </c>
+      <c r="K27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
